--- a/노트/6_jsp/0217_13.pagingreply.xlsx
+++ b/노트/6_jsp/0217_13.pagingreply.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mega_IT\노트\6_jsp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12240" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="페이징" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="답글연습" sheetId="5" r:id="rId3"/>
     <sheet name="입력과출력" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="79">
   <si>
     <t>시작번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시작페이지 + 블록당페이지 수 -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>블록당 페이지수 : 10개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,62 +230,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Math.ceil((double)전체글갯수/페이지당 갯수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작번호 + 페이지당갯수 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.ceil(페이지전체갯수/블록당 페이지 갯수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          답변글이면 원글의 ref와 같다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ⓐ ref가 같고 원글보다 re_step가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ⓑ 답변글 re_step = 원글 re_step + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                답변글이면 원글의 re_level+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. ref - 원글이면 num과 같고,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. re_step은 원글이면 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. re_level - 원글이면 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블록수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(페이지번호 - 1) * 페이지당 갯수+ 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>((현재페이지 -1)/10)*10 +1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Math.ceil((double)전체글갯수/페이지당 갯수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작번호 + 페이지당갯수 - 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Math.ceil(페이지전체갯수/블록당 페이지 갯수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">          답변글이면 원글의 ref와 같다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⓐ ref가 같고 원글보다 re_step가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⓑ 답변글 re_step = 원글 re_step + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                답변글이면 원글의 re_level+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. ref - 원글이면 num과 같고,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. re_step은 원글이면 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. re_level - 원글이면 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블록수</t>
+    <t>((현재페이지 -1)/블록사이즈)*블록사이즈 +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작페이지 + 블록사이즈 수 -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들여쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  글1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  글2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  글3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  글2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  글2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    글2-3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  글3-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -383,7 +426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -443,13 +486,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,6 +608,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -576,8 +631,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,7 +722,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -702,7 +757,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -913,170 +968,170 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A12" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.09765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="32.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.09765625" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
     </row>
-    <row r="4" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="17.45" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="17.45" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="17.45" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="17.45" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="17.45" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="17.45" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="25" t="s">
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1090,77 +1145,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A13" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.8984375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="3.69921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.296875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.3984375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="1.8984375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="38.3984375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="4.59765625" style="8"/>
-    <col min="9" max="9" width="4.8984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.69921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.59765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.09765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="4.59765625" style="8"/>
+    <col min="2" max="2" width="7.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="3.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="1.875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="38.375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="4.625" style="8"/>
+    <col min="9" max="9" width="4.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="4.625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="36"/>
+      <c r="F1" s="37"/>
       <c r="G1" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="29">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29">
+        <v>0</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="29">
-        <v>1</v>
-      </c>
-      <c r="D2" s="29">
-        <v>0</v>
-      </c>
-      <c r="E2" s="29">
-        <v>0</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="31">
-        <v>2</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>41</v>
-      </c>
       <c r="C3" s="32">
         <v>2</v>
       </c>
@@ -1170,17 +1225,17 @@
       <c r="E3" s="32">
         <v>0</v>
       </c>
-      <c r="F3" s="37"/>
+      <c r="F3" s="38"/>
       <c r="G3" s="29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="30">
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="29">
         <v>3</v>
@@ -1191,184 +1246,184 @@
       <c r="E4" s="29">
         <v>0</v>
       </c>
-      <c r="F4" s="37"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="33">
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="29">
         <v>1</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="34">
         <v>1</v>
       </c>
-      <c r="F5" s="37"/>
+      <c r="F5" s="38"/>
       <c r="G5" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
         <v>5</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="32">
         <v>2</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="35">
         <v>1</v>
       </c>
-      <c r="F6" s="37"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="30">
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="29">
         <v>3</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="34">
         <v>1</v>
       </c>
-      <c r="F7" s="37"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>7</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="32">
         <v>2</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="35">
         <v>1</v>
       </c>
-      <c r="F8" s="37"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>8</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="32">
         <v>2</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="35">
         <v>1</v>
       </c>
-      <c r="F9" s="37"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>9</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="32">
         <v>2</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="35">
         <v>2</v>
       </c>
-      <c r="F10" s="37"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="30">
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="29">
         <v>3</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="34">
         <v>1</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="27"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="B13" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="7">
         <v>3</v>
@@ -1380,46 +1435,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="7">
         <v>3</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>2</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="5">
         <v>2</v>
@@ -1431,80 +1486,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>8</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="5">
         <v>2</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>9</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5">
         <v>2</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>7</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="5">
         <v>2</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>5</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="5">
         <v>2</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -1516,18 +1571,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="9">
         <v>1</v>
@@ -1545,190 +1600,315 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" customWidth="1"/>
-    <col min="4" max="4" width="13.19921875" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="4.375" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="2.5" customWidth="1"/>
-    <col min="7" max="7" width="43.59765625" customWidth="1"/>
-    <col min="9" max="9" width="13.8984375" customWidth="1"/>
+    <col min="7" max="7" width="40.375" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="36"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="20">
+        <v>3</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="17">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="23">
+        <v>3</v>
+      </c>
+      <c r="D8" s="24">
+        <v>2</v>
+      </c>
+      <c r="E8" s="24">
+        <v>1</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="B10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="42"/>
-    </row>
-    <row r="3" spans="1:9" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="42"/>
-    </row>
-    <row r="4" spans="1:9" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="11" t="s">
+      <c r="B11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="17">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="42"/>
-    </row>
-    <row r="5" spans="1:9" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:9" s="14" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="42"/>
-    </row>
-    <row r="8" spans="1:9" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="42"/>
-    </row>
-    <row r="9" spans="1:9" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="42"/>
-    </row>
-    <row r="10" spans="1:9" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="42"/>
-    </row>
-    <row r="11" spans="1:9" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16" t="s">
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <v>10</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="42"/>
-    </row>
-    <row r="12" spans="1:9" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="41"/>
+      <c r="C12" s="23">
+        <v>3</v>
+      </c>
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
+      <c r="E12" s="24">
+        <v>1</v>
+      </c>
+      <c r="F12" s="42"/>
       <c r="G12" s="1"/>
-      <c r="I12" s="42"/>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="F2:F12"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1744,63 +1924,63 @@
       <selection activeCell="H2" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.8984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="3.69921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.3984375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.09765625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="6.19921875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="15.09765625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="4.8984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.796875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="12.59765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.09765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="4.59765625" style="8"/>
+    <col min="1" max="1" width="4.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="3.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="8" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="4.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="8" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="4.625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -1811,12 +1991,12 @@
       <c r="E2" s="7">
         <v>0</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="2">
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="7">
         <v>3</v>
@@ -1828,12 +2008,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -1844,29 +2024,29 @@
       <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="40"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="2">
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="7">
         <v>3</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -1877,45 +2057,45 @@
       <c r="E4" s="7">
         <v>0</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="2">
         <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="7">
         <v>3</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="9">
         <v>1</v>
       </c>
-      <c r="F5" s="40"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="12">
         <v>2</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="5">
         <v>2</v>
@@ -1927,160 +2107,160 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="40"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="12">
         <v>8</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="5">
         <v>2</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="9">
         <v>1</v>
       </c>
-      <c r="F7" s="40"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="12">
         <v>9</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="40"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="12">
         <v>7</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="5">
         <v>2</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="40"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="12">
         <v>5</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
       </c>
-      <c r="F10" s="40"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
@@ -2092,34 +2272,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="7">
         <v>3</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="9">
         <v>1</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="3">
         <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" s="7">
         <v>1</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11" s="9">
         <v>1</v>
